--- a/BROS.xlsx
+++ b/BROS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F6C2F8-5253-4777-9E07-02F147A0CA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F815AA7-D5A9-4D0D-ACD8-24A1C0A7AAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25635" yWindow="90" windowWidth="25650" windowHeight="20385" activeTab="1" xr2:uid="{C43C4538-8087-43AC-B8CB-5C78F41AC5B1}"/>
+    <workbookView xWindow="19360" yWindow="420" windowWidth="18920" windowHeight="20330" activeTab="1" xr2:uid="{C43C4538-8087-43AC-B8CB-5C78F41AC5B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={2F9F344B-1E5A-49A1-ACD9-B604CC04CA1A}</author>
+  </authors>
+  <commentList>
+    <comment ref="S8" authorId="0" shapeId="0" xr:uid="{2F9F344B-1E5A-49A1-ACD9-B604CC04CA1A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    1.215-1.230B guidance</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
@@ -196,7 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -207,6 +225,19 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -228,10 +259,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -253,8 +285,10 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -284,8 +318,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>30079</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>5013</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>53730</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -300,8 +334,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7549816" y="30079"/>
-          <a:ext cx="0" cy="5910513"/>
+          <a:off x="7899194" y="30079"/>
+          <a:ext cx="0" cy="10989613"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -325,6 +359,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{861A009E-A7DE-4BA2-896E-5E9A37CFB3C8}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -642,21 +682,29 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="S8" dT="2024-10-15T22:25:45.08" personId="{861A009E-A7DE-4BA2-896E-5E9A37CFB3C8}" id="{2F9F344B-1E5A-49A1-ACD9-B604CC04CA1A}">
+    <text>1.215-1.230B guidance</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEE08FF-ACA1-4D62-BBAB-7F8F2DBE3F25}">
   <dimension ref="B2:K13"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>43</v>
       </c>
@@ -671,7 +719,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>40</v>
       </c>
@@ -696,7 +744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>41</v>
       </c>
@@ -718,7 +766,7 @@
         <v>4044.688314</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>44</v>
       </c>
@@ -742,7 +790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>46</v>
       </c>
@@ -762,7 +810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>47</v>
       </c>
@@ -780,7 +828,7 @@
         <v>4012.7323139999999</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>48</v>
       </c>
@@ -792,7 +840,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>49</v>
       </c>
@@ -804,7 +852,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>45</v>
       </c>
@@ -818,7 +866,7 @@
         <v>58651</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>50</v>
       </c>
@@ -832,29 +880,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DA4EDB-BDB1-43F8-8338-51D62C7AD12E}">
-  <dimension ref="A1:N33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DA4EDB-BDB1-43F8-8338-51D62C7AD12E}">
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K33" sqref="K33"/>
+      <selection pane="bottomRight" activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="3"/>
+    <col min="3" max="14" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -891,97 +939,252 @@
       <c r="N2" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P2">
+        <v>2021</v>
+      </c>
+      <c r="Q2">
+        <v>2022</v>
+      </c>
+      <c r="R2">
+        <v>2023</v>
+      </c>
+      <c r="S2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>36</v>
       </c>
+      <c r="E3" s="3">
+        <v>671</v>
+      </c>
+      <c r="F3" s="3">
+        <v>671</v>
+      </c>
+      <c r="G3" s="3">
+        <v>716</v>
+      </c>
       <c r="H3" s="3">
         <v>754</v>
       </c>
+      <c r="I3" s="3">
+        <v>831</v>
+      </c>
+      <c r="J3" s="3">
+        <v>831</v>
+      </c>
+      <c r="K3" s="3">
+        <v>876</v>
+      </c>
       <c r="L3" s="3">
         <v>912</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M3" s="3">
+        <f>+L3+5</f>
+        <v>917</v>
+      </c>
+      <c r="N3" s="3">
+        <f>+M3+5</f>
+        <v>922</v>
+      </c>
+      <c r="P3">
+        <v>538</v>
+      </c>
+      <c r="Q3">
+        <f>+F3</f>
+        <v>671</v>
+      </c>
+      <c r="R3">
+        <f>+J3</f>
+        <v>831</v>
+      </c>
+      <c r="S3">
+        <f>+N3</f>
+        <v>922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="8" t="e">
+      <c r="E4" s="8">
+        <f>+E8/E3</f>
+        <v>0.29604769001490311</v>
+      </c>
+      <c r="F4" s="8">
+        <f>+F8/F3</f>
+        <v>0.30078539493293593</v>
+      </c>
+      <c r="G4" s="8">
         <f>+G8/G3</f>
-        <v>#DIV/0!</v>
+        <v>0.27551256983240224</v>
       </c>
       <c r="H4" s="8">
         <f>+H8/H3</f>
         <v>0.33140450928381959</v>
       </c>
-      <c r="K4" s="8" t="e">
+      <c r="I4" s="8">
+        <f>+I8/I3</f>
+        <v>0.31829963898916969</v>
+      </c>
+      <c r="J4" s="8">
+        <f>+J8/J3</f>
+        <v>0.30580385078219013</v>
+      </c>
+      <c r="K4" s="8">
         <f>+K8/K3</f>
-        <v>#DIV/0!</v>
+        <v>0.31403995433789955</v>
       </c>
       <c r="L4" s="8">
         <f>+L8/L3</f>
         <v>0.35626973684210522</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M4" s="8">
+        <f>+M8/M3</f>
+        <v>0.35541766630316241</v>
+      </c>
+      <c r="N4" s="8">
+        <f>+N8/N3</f>
+        <v>0.35457483731019518</v>
+      </c>
+      <c r="P4" s="8">
+        <f>+P8/P3</f>
+        <v>0.92542007434944229</v>
+      </c>
+      <c r="Q4" s="8">
+        <f>+Q8/Q3</f>
+        <v>1.1013591654247392</v>
+      </c>
+      <c r="R4" s="8">
+        <f>+R8/R3</f>
+        <v>1.1621853188929001</v>
+      </c>
+      <c r="S4" s="8">
+        <f>+S8/S3</f>
+        <v>1.3588427331887201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="5">
+        <v>173.501</v>
+      </c>
+      <c r="F6" s="5">
+        <v>175.51</v>
+      </c>
       <c r="G6" s="5">
         <v>173.16399999999999</v>
       </c>
       <c r="H6" s="5">
         <v>220.952</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="I6" s="5">
+        <v>236.47200000000001</v>
+      </c>
+      <c r="J6" s="5">
+        <v>227.351</v>
+      </c>
       <c r="K6" s="5">
         <v>248.08500000000001</v>
       </c>
       <c r="L6" s="5">
         <v>295.26799999999997</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M6" s="5">
+        <f>+L6+1</f>
+        <v>296.26799999999997</v>
+      </c>
+      <c r="N6" s="5">
+        <f>+M6+1</f>
+        <v>297.26799999999997</v>
+      </c>
+      <c r="P6" s="2">
+        <v>403.74599999999998</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>639.71</v>
+      </c>
+      <c r="R6" s="2">
+        <f>SUM(G6:J6)</f>
+        <v>857.93899999999996</v>
+      </c>
+      <c r="S6" s="2">
+        <f>SUM(K6:N6)</f>
+        <v>1136.8889999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="5">
+        <v>25.146999999999998</v>
+      </c>
+      <c r="F7" s="5">
+        <v>26.317</v>
+      </c>
       <c r="G7" s="5">
         <v>24.103000000000002</v>
       </c>
       <c r="H7" s="5">
         <v>28.927</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="I7" s="5">
+        <v>28.035</v>
+      </c>
+      <c r="J7" s="5">
+        <v>26.771999999999998</v>
+      </c>
       <c r="K7" s="5">
         <v>27.013999999999999</v>
       </c>
       <c r="L7" s="5">
         <v>29.65</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M7" s="5">
+        <f>+L7</f>
+        <v>29.65</v>
+      </c>
+      <c r="N7" s="5">
+        <f>+M7</f>
+        <v>29.65</v>
+      </c>
+      <c r="P7" s="2">
+        <v>94.13</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>99.302000000000007</v>
+      </c>
+      <c r="R7" s="2">
+        <f>SUM(G7:J7)</f>
+        <v>107.83699999999999</v>
+      </c>
+      <c r="S7" s="2">
+        <f>SUM(K7:N7)</f>
+        <v>115.964</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="7">
+        <f>+E6+E7</f>
+        <v>198.648</v>
+      </c>
+      <c r="F8" s="7">
+        <f>+F6+F7</f>
+        <v>201.827</v>
+      </c>
       <c r="G8" s="7">
         <f>+G6+G7</f>
         <v>197.267</v>
@@ -990,8 +1193,14 @@
         <f>+H6+H7</f>
         <v>249.87899999999999</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="I8" s="7">
+        <f>+I6+I7</f>
+        <v>264.50700000000001</v>
+      </c>
+      <c r="J8" s="7">
+        <f>+J6+J7</f>
+        <v>254.12299999999999</v>
+      </c>
       <c r="K8" s="7">
         <f>+K6+K7</f>
         <v>275.09899999999999</v>
@@ -1000,42 +1209,98 @@
         <f>+L6+L7</f>
         <v>324.91799999999995</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M8" s="7">
+        <f>+M6+M7</f>
+        <v>325.91799999999995</v>
+      </c>
+      <c r="N8" s="7">
+        <f>+N6+N7</f>
+        <v>326.91799999999995</v>
+      </c>
+      <c r="P8" s="6">
+        <f>+P6+P7</f>
+        <v>497.87599999999998</v>
+      </c>
+      <c r="Q8" s="6">
+        <f>+Q6+Q7</f>
+        <v>739.01200000000006</v>
+      </c>
+      <c r="R8" s="6">
+        <f>+R6+R7</f>
+        <v>965.77599999999995</v>
+      </c>
+      <c r="S8" s="6">
+        <f>SUM(K8:N8)</f>
+        <v>1252.8529999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="5">
+        <v>148.09200000000001</v>
+      </c>
+      <c r="F9" s="5">
+        <v>147.46700000000001</v>
+      </c>
       <c r="G9" s="5">
         <v>151.523</v>
       </c>
       <c r="H9" s="5">
         <v>178.636</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="I9" s="5">
+        <v>189.32300000000001</v>
+      </c>
+      <c r="J9" s="5">
+        <v>194.99799999999999</v>
+      </c>
       <c r="K9" s="5">
         <v>203.32599999999999</v>
       </c>
       <c r="L9" s="5">
         <v>234.637</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M9" s="5">
+        <f>+M8*0.77</f>
+        <v>250.95685999999998</v>
+      </c>
+      <c r="N9" s="5">
+        <f>+N8*0.77</f>
+        <v>251.72685999999996</v>
+      </c>
+      <c r="P9" s="2">
+        <v>344.57299999999998</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>558.096</v>
+      </c>
+      <c r="R9" s="2">
+        <f>SUM(G9:J9)</f>
+        <v>714.48</v>
+      </c>
+      <c r="S9" s="2">
+        <f>SUM(K9:N9)</f>
+        <v>940.64671999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="5">
+        <f>+E8-E9</f>
+        <v>50.555999999999983</v>
+      </c>
+      <c r="F10" s="5">
+        <f>+F8-F9</f>
+        <v>54.359999999999985</v>
+      </c>
       <c r="G10" s="5">
         <f>+G8-G9</f>
         <v>45.744</v>
@@ -1044,8 +1309,14 @@
         <f>+H8-H9</f>
         <v>71.242999999999995</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="I10" s="5">
+        <f>+I8-I9</f>
+        <v>75.183999999999997</v>
+      </c>
+      <c r="J10" s="5">
+        <f>+J8-J9</f>
+        <v>59.125</v>
+      </c>
       <c r="K10" s="5">
         <f>+K8-K9</f>
         <v>71.772999999999996</v>
@@ -1054,42 +1325,98 @@
         <f>+L8-L9</f>
         <v>90.280999999999949</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M10" s="5">
+        <f t="shared" ref="M10:N10" si="0">+M8-M9</f>
+        <v>74.961139999999972</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="0"/>
+        <v>75.19113999999999</v>
+      </c>
+      <c r="P10" s="2">
+        <f>+P8-P9</f>
+        <v>153.303</v>
+      </c>
+      <c r="Q10" s="2">
+        <f>+Q8-Q9</f>
+        <v>180.91600000000005</v>
+      </c>
+      <c r="R10" s="2">
+        <f>+R8-R9</f>
+        <v>251.29599999999994</v>
+      </c>
+      <c r="S10" s="2">
+        <f>+S8-S9</f>
+        <v>312.20627999999988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="E11" s="5">
+        <v>45.378</v>
+      </c>
+      <c r="F11" s="5">
+        <v>50.594000000000001</v>
+      </c>
       <c r="G11" s="5">
         <v>45.975999999999999</v>
       </c>
       <c r="H11" s="5">
         <v>51.661999999999999</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="I11" s="5">
+        <v>50.49</v>
+      </c>
+      <c r="J11" s="5">
+        <v>56.945999999999998</v>
+      </c>
       <c r="K11" s="5">
         <v>46.194000000000003</v>
       </c>
       <c r="L11" s="5">
         <v>58.097000000000001</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M11" s="5">
+        <f>+I11</f>
+        <v>50.49</v>
+      </c>
+      <c r="N11" s="5">
+        <f>+J11</f>
+        <v>56.945999999999998</v>
+      </c>
+      <c r="P11" s="2">
+        <v>264.529</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>183.52799999999999</v>
+      </c>
+      <c r="R11" s="2">
+        <f>SUM(G11:J11)</f>
+        <v>205.07400000000001</v>
+      </c>
+      <c r="S11" s="2">
+        <f>SUM(K11:N11)</f>
+        <v>211.727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="E12" s="5">
+        <f>+E10-E11</f>
+        <v>5.1779999999999831</v>
+      </c>
+      <c r="F12" s="5">
+        <f>+F10-F11</f>
+        <v>3.765999999999984</v>
+      </c>
       <c r="G12" s="5">
         <f>+G10-G11</f>
         <v>-0.23199999999999932</v>
@@ -1098,8 +1425,14 @@
         <f>+H10-H11</f>
         <v>19.580999999999996</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="I12" s="5">
+        <f>+I10-I11</f>
+        <v>24.693999999999996</v>
+      </c>
+      <c r="J12" s="5">
+        <f>+J10-J11</f>
+        <v>2.179000000000002</v>
+      </c>
       <c r="K12" s="5">
         <f>+K10-K11</f>
         <v>25.578999999999994</v>
@@ -1108,37 +1441,95 @@
         <f>+L10-L11</f>
         <v>32.183999999999948</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M12" s="5">
+        <f t="shared" ref="M12:N12" si="1">+M10-M11</f>
+        <v>24.47113999999997</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" si="1"/>
+        <v>18.245139999999992</v>
+      </c>
+      <c r="P12" s="2">
+        <f>+P10-P11</f>
+        <v>-111.226</v>
+      </c>
+      <c r="Q12" s="2">
+        <f>+Q10-Q11</f>
+        <v>-2.6119999999999379</v>
+      </c>
+      <c r="R12" s="2">
+        <f>+R10-R11</f>
+        <v>46.221999999999923</v>
+      </c>
+      <c r="S12" s="2">
+        <f>+S10-S11</f>
+        <v>100.47927999999987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="E13" s="5">
+        <v>-6.9550000000000001</v>
+      </c>
+      <c r="F13" s="5">
+        <v>-1.284</v>
+      </c>
       <c r="G13" s="5">
         <v>-6.5789999999999997</v>
       </c>
       <c r="H13" s="5">
         <v>-8.0190000000000001</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="I13" s="5">
+        <v>-9.4649999999999999</v>
+      </c>
+      <c r="J13" s="5">
+        <v>-5.24</v>
+      </c>
       <c r="K13" s="5">
         <v>-0.59199999999999997</v>
       </c>
       <c r="L13" s="5">
         <v>-6.1680000000000001</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M13" s="5">
+        <f>+I13</f>
+        <v>-9.4649999999999999</v>
+      </c>
+      <c r="N13" s="5">
+        <f>+J13</f>
+        <v>-5.24</v>
+      </c>
+      <c r="P13" s="2">
+        <v>-8.3330000000000002</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>-14.042</v>
+      </c>
+      <c r="R13" s="2">
+        <f>SUM(G13:J13)</f>
+        <v>-29.302999999999997</v>
+      </c>
+      <c r="S13" s="2">
+        <f>SUM(K13:N13)</f>
+        <v>-21.465000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="E14" s="5">
+        <f>+E12+E13</f>
+        <v>-1.777000000000017</v>
+      </c>
+      <c r="F14" s="5">
+        <f>+F12+F13</f>
+        <v>2.4819999999999842</v>
       </c>
       <c r="G14" s="5">
         <f>+G12+G13</f>
@@ -1148,6 +1539,14 @@
         <f>+H12+H13</f>
         <v>11.561999999999996</v>
       </c>
+      <c r="I14" s="5">
+        <f>+I12+I13</f>
+        <v>15.228999999999996</v>
+      </c>
+      <c r="J14" s="5">
+        <f>+J12+J13</f>
+        <v>-3.0609999999999982</v>
+      </c>
       <c r="K14" s="5">
         <f>+K12+K13</f>
         <v>24.986999999999995</v>
@@ -1156,29 +1555,93 @@
         <f>+L12+L13</f>
         <v>26.015999999999948</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M14" s="5">
+        <f t="shared" ref="M14:N14" si="2">+M12+M13</f>
+        <v>15.00613999999997</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="2"/>
+        <v>13.005139999999992</v>
+      </c>
+      <c r="P14" s="2">
+        <f>+P12+P13</f>
+        <v>-119.559</v>
+      </c>
+      <c r="Q14" s="2">
+        <f>+Q12+Q13</f>
+        <v>-16.65399999999994</v>
+      </c>
+      <c r="R14" s="2">
+        <f>+R12+R13</f>
+        <v>16.918999999999926</v>
+      </c>
+      <c r="S14" s="2">
+        <f>+S12+S13</f>
+        <v>79.014279999999872</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="E15" s="5">
+        <v>-3.371</v>
+      </c>
+      <c r="F15" s="5">
+        <v>5.2990000000000004</v>
+      </c>
       <c r="G15" s="5">
         <v>2.58</v>
       </c>
       <c r="H15" s="5">
         <v>6.9589999999999996</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="I15" s="5">
+        <v>1.8280000000000001</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.70799999999999996</v>
+      </c>
       <c r="K15" s="5">
         <v>8.7720000000000002</v>
       </c>
       <c r="L15" s="5">
         <v>10.215999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M15" s="5">
+        <f>+M14*0.1</f>
+        <v>1.500613999999997</v>
+      </c>
+      <c r="N15" s="5">
+        <f>+N14*0.1</f>
+        <v>1.3005139999999993</v>
+      </c>
+      <c r="P15" s="2">
+        <v>-1.6279999999999999</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>2.5990000000000002</v>
+      </c>
+      <c r="R15" s="2">
+        <f>SUM(G15:J15)</f>
+        <v>12.074999999999999</v>
+      </c>
+      <c r="S15" s="2">
+        <f>SUM(K15:N15)</f>
+        <v>21.789127999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="E16" s="5">
+        <f>+E14-E15</f>
+        <v>1.593999999999983</v>
+      </c>
+      <c r="F16" s="5">
+        <f>+F14-F15</f>
+        <v>-2.8170000000000162</v>
       </c>
       <c r="G16" s="5">
         <f>+G14-G15</f>
@@ -1188,6 +1651,14 @@
         <f>+H14-H15</f>
         <v>4.6029999999999962</v>
       </c>
+      <c r="I16" s="5">
+        <f>+I14-I15</f>
+        <v>13.400999999999996</v>
+      </c>
+      <c r="J16" s="5">
+        <f>+J14-J15</f>
+        <v>-3.7689999999999984</v>
+      </c>
       <c r="K16" s="5">
         <f>+K14-K15</f>
         <v>16.214999999999996</v>
@@ -1196,10 +1667,42 @@
         <f>+L14-L15</f>
         <v>15.799999999999949</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M16" s="5">
+        <f t="shared" ref="M16:N16" si="3">+M14-M15</f>
+        <v>13.505525999999973</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" si="3"/>
+        <v>11.704625999999992</v>
+      </c>
+      <c r="P16" s="2">
+        <f>+P14-P15</f>
+        <v>-117.931</v>
+      </c>
+      <c r="Q16" s="2">
+        <f>+Q14-Q15</f>
+        <v>-19.25299999999994</v>
+      </c>
+      <c r="R16" s="2">
+        <f>+R14-R15</f>
+        <v>4.8439999999999266</v>
+      </c>
+      <c r="S16" s="2">
+        <f>+S14-S15</f>
+        <v>57.225151999999873</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="E17" s="8">
+        <f>+E16/E18</f>
+        <v>2.9291778455657742E-2</v>
+      </c>
+      <c r="F17" s="8">
+        <f>+F16/F18</f>
+        <v>-5.0953225047932857E-2</v>
       </c>
       <c r="G17" s="8">
         <f>+G16/G18</f>
@@ -1209,6 +1712,14 @@
         <f>+H16/H18</f>
         <v>8.0152538831232092E-2</v>
       </c>
+      <c r="I17" s="8">
+        <f>+I16/I18</f>
+        <v>0.22255621616235421</v>
+      </c>
+      <c r="J17" s="8">
+        <f>+J16/J18</f>
+        <v>-5.1253807658833743E-2</v>
+      </c>
       <c r="K17" s="8">
         <f>+K16/K18</f>
         <v>0.19440115094113411</v>
@@ -1217,173 +1728,358 @@
         <f>+L16/L18</f>
         <v>0.15436320293876227</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="M17" s="8">
+        <f t="shared" ref="M17:N17" si="4">+M16/M18</f>
+        <v>0.13194659814764131</v>
+      </c>
+      <c r="N17" s="8">
+        <f t="shared" si="4"/>
+        <v>0.11435212395951379</v>
+      </c>
+      <c r="P17" s="8">
+        <f>+P16/P18</f>
+        <v>-2.5713195534624109</v>
+      </c>
+      <c r="Q17" s="8">
+        <f>+Q16/Q18</f>
+        <v>-0.37117078907289119</v>
+      </c>
+      <c r="R17" s="8">
+        <f>+R16/R18</f>
+        <v>7.8035892644262111E-2</v>
+      </c>
+      <c r="S17" s="8">
+        <f>+S16/S18</f>
+        <v>0.58620615758121974</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="E18" s="5">
+        <v>54.417999999999999</v>
+      </c>
+      <c r="F18" s="5">
+        <v>55.286000000000001</v>
+      </c>
       <c r="G18" s="5">
         <v>56.664000000000001</v>
       </c>
       <c r="H18" s="5">
         <v>57.427999999999997</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="I18" s="5">
+        <v>60.213999999999999</v>
+      </c>
+      <c r="J18" s="5">
+        <v>73.536000000000001</v>
+      </c>
       <c r="K18" s="5">
         <v>83.41</v>
       </c>
       <c r="L18" s="5">
         <v>102.35599999999999</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+      <c r="M18" s="5">
+        <f>+L18</f>
+        <v>102.35599999999999</v>
+      </c>
+      <c r="N18" s="5">
+        <f>+M18</f>
+        <v>102.35599999999999</v>
+      </c>
+      <c r="P18" s="2">
+        <v>45.863999999999997</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>51.871000000000002</v>
+      </c>
+      <c r="R18" s="2">
+        <v>62.073999999999998</v>
+      </c>
+      <c r="S18" s="2">
+        <f>AVERAGE(K18:N18)</f>
+        <v>97.619499999999988</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="4">
+      <c r="I20" s="4">
+        <f>+I8/E8-1</f>
+        <v>0.33153618460794987</v>
+      </c>
+      <c r="J20" s="4">
+        <f>+J8/F8-1</f>
+        <v>0.25911300272015136</v>
+      </c>
+      <c r="K20" s="4">
         <f>+K8/G8-1</f>
         <v>0.39455154688822769</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L20" s="4">
         <f>+L8/H8-1</f>
         <v>0.3003013458513919</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="M20" s="4">
+        <f t="shared" ref="M20:N20" si="5">+M8/I8-1</f>
+        <v>0.23217154933517814</v>
+      </c>
+      <c r="N20" s="4">
+        <f t="shared" si="5"/>
+        <v>0.28645577141777778</v>
+      </c>
+      <c r="Q20" s="9">
+        <f>+Q8/P8-1</f>
+        <v>0.4843294314246922</v>
+      </c>
+      <c r="R20" s="9">
+        <f>+R8/Q8-1</f>
+        <v>0.30684752074391208</v>
+      </c>
+      <c r="S20" s="9">
+        <f>+S8/R8-1</f>
+        <v>0.29725008697669009</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="K27" s="4" t="e">
+      <c r="I21" s="4">
+        <f>+I3/E3-1</f>
+        <v>0.23845007451564837</v>
+      </c>
+      <c r="J21" s="4">
+        <f>+J3/F3-1</f>
+        <v>0.23845007451564837</v>
+      </c>
+      <c r="K21" s="4">
         <f>+K3/G3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L27" s="4">
+        <v>0.22346368715083798</v>
+      </c>
+      <c r="L21" s="4">
         <f>+L3/H3-1</f>
         <v>0.20954907161803704</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+      <c r="M21" s="4">
+        <f>+M3/I3-1</f>
+        <v>0.10348977135980753</v>
+      </c>
+      <c r="N21" s="4">
+        <f>+N3/J3-1</f>
+        <v>0.10950661853188937</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="K28" s="4" t="e">
+      <c r="I22" s="4">
+        <f>+I4/E4-1</f>
+        <v>7.5163393347694729E-2</v>
+      </c>
+      <c r="J22" s="4">
+        <f>+J4/F4-1</f>
+        <v>1.6684506408208843E-2</v>
+      </c>
+      <c r="K22" s="4">
         <f>+K4/G4-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" s="4">
+        <v>0.13983893558444183</v>
+      </c>
+      <c r="L22" s="4">
         <f>+L4/H4-1</f>
         <v>7.5029840758716659E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+      <c r="M22" s="4">
+        <f>+M4/I4-1</f>
+        <v>0.11661347600603378</v>
+      </c>
+      <c r="N22" s="4">
+        <f>+N4/J4-1</f>
+        <v>0.15948454018240055</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="4">
+      <c r="E23" s="4">
+        <f>+E10/E8</f>
+        <v>0.25450042285852353</v>
+      </c>
+      <c r="F23" s="4">
+        <f>+F10/F8</f>
+        <v>0.269339582910116</v>
+      </c>
+      <c r="G23" s="4">
         <f>+G10/G8</f>
         <v>0.23188875990408939</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H23" s="4">
         <f>+H10/H8</f>
         <v>0.28510999323672659</v>
       </c>
-      <c r="K29" s="4">
+      <c r="I23" s="4">
+        <f>+I10/I8</f>
+        <v>0.28424200493748747</v>
+      </c>
+      <c r="J23" s="4">
+        <f>+J10/J8</f>
+        <v>0.2326629230726853</v>
+      </c>
+      <c r="K23" s="4">
         <f>+K10/K8</f>
         <v>0.26089880370339402</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L23" s="4">
         <f>+L10/L8</f>
         <v>0.27785779796748705</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
+      <c r="M23" s="4">
+        <f>+M10/M8</f>
+        <v>0.22999999999999995</v>
+      </c>
+      <c r="N23" s="4">
+        <f>+N10/N8</f>
+        <v>0.23</v>
+      </c>
+      <c r="P23" s="4">
+        <f>+P10/P8</f>
+        <v>0.30791401875165703</v>
+      </c>
+      <c r="Q23" s="4">
+        <f>+Q10/Q8</f>
+        <v>0.24480793275346008</v>
+      </c>
+      <c r="R23" s="4">
+        <f>+R10/R8</f>
+        <v>0.26020112324182826</v>
+      </c>
+      <c r="S23" s="4">
+        <f>+S10/S8</f>
+        <v>0.24919625845969154</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5">
         <v>3.077</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H25" s="5">
         <v>45.843000000000004</v>
       </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5">
         <v>41.192999999999998</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L25" s="5">
         <v>100.729</v>
       </c>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-    </row>
-    <row r="32" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="P25" s="2">
+        <v>80.375</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>59.883000000000003</v>
+      </c>
+      <c r="R25" s="2">
+        <v>139.91499999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5">
         <v>43.283000000000001</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H26" s="5">
         <v>102.307</v>
       </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5">
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5">
         <v>57.462000000000003</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L26" s="5">
         <v>121.91</v>
       </c>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="P26" s="2">
+        <v>118.444</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>187.88</v>
+      </c>
+      <c r="R26" s="2">
+        <v>228.45699999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5">
-        <f>+G31-G32</f>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5">
+        <f>+G25-G26</f>
         <v>-40.206000000000003</v>
       </c>
-      <c r="H33" s="5">
-        <f>+H31-H32</f>
+      <c r="H27" s="5">
+        <f>+H25-H26</f>
         <v>-56.463999999999999</v>
       </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5">
-        <f>+K31-K32</f>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5">
+        <f>+K25-K26</f>
         <v>-16.269000000000005</v>
       </c>
-      <c r="L33" s="5">
-        <f>+L31-L32</f>
+      <c r="L27" s="5">
+        <f>+L25-L26</f>
         <v>-21.180999999999997</v>
       </c>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="P27" s="2">
+        <f>+P25-P26</f>
+        <v>-38.069000000000003</v>
+      </c>
+      <c r="Q27" s="2">
+        <f>+Q25-Q26</f>
+        <v>-127.99699999999999</v>
+      </c>
+      <c r="R27" s="2">
+        <f>+R25-R26</f>
+        <v>-88.542000000000002</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{41D1E94F-D9F3-4A44-AD31-71CC0D6DCCEE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>